--- a/pre_processing/target_encoder_payment_method_id.xlsx
+++ b/pre_processing/target_encoder_payment_method_id.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,18 +455,18 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.647</v>
+        <v>-0.6889999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6889999999999999</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="5">
@@ -479,17 +479,9 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.639</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.099</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
         <v>1.661</v>
       </c>
     </row>

--- a/pre_processing/target_encoder_payment_method_id.xlsx
+++ b/pre_processing/target_encoder_payment_method_id.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.982</v>
+        <v>-1.863</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6889999999999999</v>
+        <v>-0.641</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.23</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.391</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.661</v>
+        <v>1.695</v>
       </c>
     </row>
   </sheetData>

--- a/pre_processing/target_encoder_payment_method_id.xlsx
+++ b/pre_processing/target_encoder_payment_method_id.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,23 +450,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.863</v>
+        <v>-1.968</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.641</v>
+        <v>-1.383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.254</v>
+        <v>-0.5669999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -474,15 +474,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.509</v>
+        <v>-0.005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.695</v>
+      <c r="B7" t="n">
+        <v>1.384</v>
       </c>
     </row>
   </sheetData>
